--- a/Exercise Data.xlsx
+++ b/Exercise Data.xlsx
@@ -18,6 +18,9 @@
     <x:sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <x:sheet name="1 Results" sheetId="7" r:id="rId4"/>
     <x:sheet name="2 Results" sheetId="8" r:id="rId8"/>
+    <x:sheet name="3 Results" sheetId="13" r:id="rId13"/>
+    <x:sheet name="4 Results" sheetId="14" r:id="rId14"/>
+    <x:sheet name="5 Results" sheetId="18" r:id="rId18"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -96,6 +99,9 @@
   </x:si>
   <x:si>
     <x:t>Yes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unique</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -640,19 +646,19 @@
     <x:col min="4" max="16384" width="9.140625" style="13" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <x:row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <x:c r="A1" s="14"/>
       <x:c r="B1" s="15"/>
       <x:c r="C1" s="15"/>
     </x:row>
-    <x:row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="15"/>
       <x:c r="B2" s="16" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="17"/>
     </x:row>
-    <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A3" s="15"/>
       <x:c r="B3" s="18" t="s">
         <x:v>1</x:v>
@@ -661,7 +667,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A4" s="15"/>
       <x:c r="B4" s="18" t="s">
         <x:v>3</x:v>
@@ -670,7 +676,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A5" s="15"/>
       <x:c r="B5" s="21" t="s">
         <x:v>5</x:v>
@@ -679,7 +685,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A6" s="15"/>
       <x:c r="B6" s="21" t="s">
         <x:v>7</x:v>
@@ -688,7 +694,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A7" s="15"/>
       <x:c r="B7" s="21" t="s">
         <x:v>9</x:v>
@@ -697,127 +703,127 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A8" s="15"/>
       <x:c r="B8" s="15"/>
       <x:c r="C8" s="15"/>
     </x:row>
-    <x:row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="15"/>
       <x:c r="B9" s="15"/>
       <x:c r="C9" s="15"/>
     </x:row>
-    <x:row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A10" s="15"/>
       <x:c r="B10" s="15"/>
       <x:c r="C10" s="15"/>
     </x:row>
-    <x:row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="15"/>
       <x:c r="B11" s="15"/>
       <x:c r="C11" s="15"/>
     </x:row>
-    <x:row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A12" s="15"/>
       <x:c r="B12" s="15"/>
       <x:c r="C12" s="15"/>
     </x:row>
-    <x:row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A13" s="15"/>
       <x:c r="B13" s="15"/>
       <x:c r="C13" s="15"/>
     </x:row>
-    <x:row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A14" s="15"/>
       <x:c r="B14" s="15"/>
       <x:c r="C14" s="15"/>
     </x:row>
-    <x:row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A15" s="15"/>
       <x:c r="B15" s="15"/>
       <x:c r="C15" s="15"/>
     </x:row>
-    <x:row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A16" s="15"/>
       <x:c r="B16" s="15"/>
       <x:c r="C16" s="15"/>
     </x:row>
-    <x:row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A17" s="15"/>
       <x:c r="B17" s="15"/>
       <x:c r="C17" s="15"/>
     </x:row>
-    <x:row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A18" s="15"/>
       <x:c r="B18" s="15"/>
       <x:c r="C18" s="15"/>
     </x:row>
-    <x:row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A19" s="15"/>
       <x:c r="B19" s="15"/>
       <x:c r="C19" s="15"/>
     </x:row>
-    <x:row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A20" s="15"/>
       <x:c r="B20" s="15"/>
       <x:c r="C20" s="15"/>
     </x:row>
-    <x:row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A21" s="15"/>
       <x:c r="B21" s="15"/>
       <x:c r="C21" s="15"/>
     </x:row>
-    <x:row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A22" s="15"/>
       <x:c r="B22" s="15"/>
       <x:c r="C22" s="15"/>
     </x:row>
-    <x:row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A23" s="15"/>
       <x:c r="B23" s="15"/>
       <x:c r="C23" s="22"/>
     </x:row>
-    <x:row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A24" s="15"/>
       <x:c r="B24" s="15"/>
       <x:c r="C24" s="23"/>
     </x:row>
-    <x:row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A25" s="15"/>
       <x:c r="B25" s="15"/>
       <x:c r="C25" s="23"/>
     </x:row>
-    <x:row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A26" s="15"/>
       <x:c r="B26" s="15"/>
       <x:c r="C26" s="15"/>
     </x:row>
-    <x:row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A27" s="15"/>
       <x:c r="B27" s="15"/>
       <x:c r="C27" s="22"/>
     </x:row>
-    <x:row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A28" s="15"/>
       <x:c r="B28" s="15"/>
       <x:c r="C28" s="22"/>
     </x:row>
-    <x:row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A29" s="15"/>
       <x:c r="B29" s="15"/>
       <x:c r="C29" s="24"/>
     </x:row>
-    <x:row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A30" s="15"/>
       <x:c r="B30" s="15"/>
       <x:c r="C30" s="22"/>
     </x:row>
-    <x:row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A31" s="15"/>
       <x:c r="B31" s="15"/>
       <x:c r="C31" s="23"/>
     </x:row>
-    <x:row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A32" s="15"/>
       <x:c r="B32" s="15"/>
       <x:c r="C32" s="23"/>
@@ -827,10 +833,10 @@
     <x:mergeCell ref="B2:C2"/>
   </x:mergeCells>
   <x:hyperlinks>
-    <x:hyperlink ref="C3" r:id="rId9"/>
-    <x:hyperlink ref="C5" r:id="rId10"/>
-    <x:hyperlink ref="C6" r:id="rId11"/>
-    <x:hyperlink ref="C7" r:id="rId12"/>
+    <x:hyperlink ref="C3" r:id="rId19"/>
+    <x:hyperlink ref="C5" r:id="rId20"/>
+    <x:hyperlink ref="C6" r:id="rId21"/>
+    <x:hyperlink ref="C7" r:id="rId23"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1030,10 +1036,10 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
@@ -1042,6 +1048,160 @@
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>15</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B5"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
